--- a/Test_cases_Brief.xlsx
+++ b/Test_cases_Brief.xlsx
@@ -4,18 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="14655" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="-15" windowWidth="17580" windowHeight="12750" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Test_cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugs" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="247">
+  <si>
+    <t>Your Company LOGO</t>
+  </si>
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Energy-Telecom Service Review</t>
+  </si>
   <si>
     <t>Test Designed by:</t>
   </si>
@@ -23,21 +33,130 @@
     <t>Doronin D.</t>
   </si>
   <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Designed date: </t>
+  </si>
+  <si>
     <t>Release Version:</t>
   </si>
   <si>
+    <t xml:space="preserve">Test Executed by: </t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Execution date: </t>
   </si>
   <si>
+    <t>Dependencies:</t>
+  </si>
+  <si>
+    <t>Test Priority</t>
+  </si>
+  <si>
+    <t>Test Case#</t>
+  </si>
+  <si>
+    <t>Test Description/Purpose</t>
+  </si>
+  <si>
+    <t>Test Summary</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
+    <t>Post-condition</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>https://web.gobrief.com/</t>
+  </si>
+  <si>
     <t>Environment</t>
   </si>
   <si>
+    <t>Test suit</t>
+  </si>
+  <si>
+    <t>Happy pass. Create account with valid data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Create account with valid data</t>
+  </si>
+  <si>
+    <t>Valid Email</t>
+  </si>
+  <si>
+    <t>preconditions</t>
+  </si>
+  <si>
+    <t>account created via email,
+user is logged off</t>
+  </si>
+  <si>
+    <t>Happy pass. Enter a valid login</t>
+  </si>
+  <si>
+    <t>Enter a valid login</t>
+  </si>
+  <si>
+    <t>Valid Email, account created via email</t>
+  </si>
+  <si>
+    <t>new account created, users initials is displayed on the header</t>
+  </si>
+  <si>
+    <t>user logged in, users initials is displayed on the header</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Happy pass. Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user logged out </t>
+  </si>
+  <si>
+    <t>Log in with invalid confirmation code</t>
+  </si>
+  <si>
+    <t>Enter invalid confirmation code</t>
+  </si>
+  <si>
+    <t>Message about invalid code</t>
+  </si>
+  <si>
+    <t>Message "Verification code is incorrect"</t>
+  </si>
+  <si>
+    <t>Happy pass. Enter with Google account</t>
+  </si>
+  <si>
+    <t>The email with which you registered belongs to the selected Google account</t>
+  </si>
+  <si>
+    <t>invitation email is received</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -83,10 +202,17 @@
     <t>new</t>
   </si>
   <si>
-    <t>Icon with the image of people at the bottom of the screen have not any tips</t>
-  </si>
-  <si>
-    <t>Hover your cursor over the people icon at the bottom of the screen</t>
+    <t>Add contacts to your team</t>
+  </si>
+  <si>
+    <t>Team members</t>
+  </si>
+  <si>
+    <t>1. Click "Add to Contacts" button
+2. At the bottom of the screen, click on the icon with the image of people.</t>
+  </si>
+  <si>
+    <t>User is in your contact list</t>
   </si>
   <si>
     <t>Seen any tips about purpose of button</t>
@@ -107,9 +233,6 @@
     <t>there is no any news in contacts</t>
   </si>
   <si>
-    <t>Icon with the image of people ("contacts") at the bottom of the screen have not any tips</t>
-  </si>
-  <si>
     <t>The "messages" icon has a sign about thry news item. But there is four news in "messages".</t>
   </si>
   <si>
@@ -117,6 +240,27 @@
   </si>
   <si>
     <t>Incorrect counting of new events in "contacts" "messages".</t>
+  </si>
+  <si>
+    <t>Add contact to your team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invite your team members via button "Sent invite"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invite your team members via sending link.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. At the bottom of the screen, click on the icon with the image of people.
+2.  Click on "Copy invite link"
+3. Sent link via email to your team member. 
+4. Get invite via email. </t>
+  </si>
+  <si>
+    <t>Create New Hub</t>
+  </si>
+  <si>
+    <t>Hub</t>
   </si>
   <si>
     <t>" Enter your name and name of your project"</t>
@@ -142,6 +286,35 @@
 3. Enter valid email. 
 4. Get verification code via email. 
 5. Enter verification code</t>
+  </si>
+  <si>
+    <t>new member added in hub</t>
+  </si>
+  <si>
+    <t>account created via email,
+user is logged</t>
+  </si>
+  <si>
+    <t>user is logged</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Project is created.
+3. Invitation is sended to your contact.
+4. Invitation is received and applied by your contact.</t>
+  </si>
+  <si>
+    <t>User is logged.</t>
+  </si>
+  <si>
+    <t>Add your team members in Hub</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Hub is created</t>
+  </si>
+  <si>
+    <t>Delete Hub</t>
   </si>
   <si>
     <t>1. Click "Hubs" icon (looks like a quatrefoil).
@@ -167,6 +340,83 @@
     <t>second task</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Assign Task</t>
+  </si>
+  <si>
+    <t>Assign Task to team member</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Hub is created
+2. Task is created</t>
+  </si>
+  <si>
+    <t>1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Tasks" 
+4. Click on your task .
+5. Click on "Assignee" 
+6. Click on name mamber of team
+7. Click "save" button on right side of screen</t>
+  </si>
+  <si>
+    <t>task assigned</t>
+  </si>
+  <si>
+    <t>Hub  deleted</t>
+  </si>
+  <si>
+    <t>new Hub  added</t>
+  </si>
+  <si>
+    <t>2 tasks created</t>
+  </si>
+  <si>
+    <t>Create subtasks</t>
+  </si>
+  <si>
+    <t>2 subtasks created</t>
+  </si>
+  <si>
+    <t>Set Due Date for Task</t>
+  </si>
+  <si>
+    <t>1. User logged.
+2. Hub created
+2. Task created</t>
+  </si>
+  <si>
+    <t>Due Date specified</t>
+  </si>
+  <si>
+    <t>Task time reminder</t>
+  </si>
+  <si>
+    <t>Check if the task time reminder works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Tasks" 
+4. Click on your task.
+5. Click on "Set Due Date"
+6. Select date and time for the nearest time from the current.
+7. Set reminder 5 minutes before due date.
+8. Wait for execution time </t>
+  </si>
+  <si>
+    <t>reminder worked</t>
+  </si>
+  <si>
+    <t>Windows 10 rpo, Google Chrome 98.0.4758.102</t>
+  </si>
+  <si>
+    <t>Chats</t>
+  </si>
+  <si>
     <t>messages from you and your contact are displayed on one side of the screen</t>
   </si>
   <si>
@@ -182,14 +432,532 @@
     <t>Chat1</t>
   </si>
   <si>
-    <t>Windows 10 rpo, Google Chrome 102.0.5005.63</t>
+    <t>Send message via chat</t>
+  </si>
+  <si>
+    <t>Send image via chat</t>
+  </si>
+  <si>
+    <t>Message send</t>
+  </si>
+  <si>
+    <t>Image send</t>
+  </si>
+  <si>
+    <t>Send file via chat</t>
+  </si>
+  <si>
+    <t>File send</t>
+  </si>
+  <si>
+    <t>Video Call</t>
+  </si>
+  <si>
+    <t>Audio Call</t>
+  </si>
+  <si>
+    <t>1. User logged.
+2. Contact added
+3. Personal chat selected</t>
+  </si>
+  <si>
+    <t>Video call started</t>
+  </si>
+  <si>
+    <t>Audio call started</t>
+  </si>
+  <si>
+    <t>Message "/audio-call" in the chat</t>
+  </si>
+  <si>
+    <t>Message "/video-call" in the chat</t>
+  </si>
+  <si>
+    <t>Usability: difficult to find "Log out" button</t>
+  </si>
+  <si>
+    <t>suggestion</t>
+  </si>
+  <si>
+    <t>None of the buttons has a tooltip</t>
+  </si>
+  <si>
+    <t>Hover your cursor over the "contacts", "Hubs", "Messages", "Tasks" buttons at the bottom of the screen</t>
+  </si>
+  <si>
+    <t>Some emoji in 'Flags' section are missing: letters instead of flags</t>
+  </si>
+  <si>
+    <t>1. Click "Chats" button.
+2. Select a contact.
+3. Hover your cursor over the emoji icon. 
+4. Click on flags icon.</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Create new Task inside hub</t>
+  </si>
+  <si>
+    <t>Create new task</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Hub is created.
+3. Contact added to your contact list</t>
+  </si>
+  <si>
+    <t>1. Click "New" button.
+2. Select "Hub" from drop-down list.
+3. Enter Hub name in "Team Hub Name" field.
+5. Click "Create" button on right side of screen</t>
+  </si>
+  <si>
+    <t>1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Tasks" 
+4. Click on "New task" .
+5. Enter task name in the field "Add a task, note or idea..."
+6. Click "Create" button on right side of screen</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Hub is created
+3. One task created</t>
+  </si>
+  <si>
+    <t>task created</t>
+  </si>
+  <si>
+    <t>1. User is logged.
+2. Hub is created.
+3. Contact added to your contact list
+4. New task created.</t>
+  </si>
+  <si>
+    <t>Adding the created task to the hub</t>
+  </si>
+  <si>
+    <t>task added in Hub</t>
+  </si>
+  <si>
+    <t>Multiple search inside messages</t>
+  </si>
+  <si>
+    <t>Text found as many times as it is in messages</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Text strings for chat
+1. Hello
+2. London
+3. Hello
+4. nnnnnn
+5. Hello</t>
+  </si>
+  <si>
+    <t>Searching tasks</t>
+  </si>
+  <si>
+    <t>1. User logged.</t>
+  </si>
+  <si>
+    <t>Task names
+1. Hello
+2. London
+3. Tew task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> task "London" found</t>
+  </si>
+  <si>
+    <t>Searching Hubs</t>
+  </si>
+  <si>
+    <t>Hubs
+1. Hello
+2. London
+3. New Hub</t>
+  </si>
+  <si>
+    <t>Hub "New Hub" found</t>
+  </si>
+  <si>
+    <t>Searching Contacts</t>
+  </si>
+  <si>
+    <t>Contact
+George George</t>
+  </si>
+  <si>
+    <t>George George found</t>
+  </si>
+  <si>
+    <t>Take Tutorial Tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorial </t>
+  </si>
+  <si>
+    <t>1. Choose "learning" icon. 
+2. Choose "Tutorial Tour". 
+3. Click "Yes, let's do this!"</t>
+  </si>
+  <si>
+    <t>Tutorial Tour started</t>
+  </si>
+  <si>
+    <t>no internet message</t>
+  </si>
+  <si>
+    <t>When trying to take Tutorial Tour - 'Internet connection' endless error occurs</t>
+  </si>
+  <si>
+    <t>Tutorial Tour not working</t>
+  </si>
+  <si>
+    <t>Tutorial Tour</t>
+  </si>
+  <si>
+    <t>An error in the name of the button for refusing to study the tutorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose "learning" icon. 
+2. Choose "Tutorial Tour". </t>
+  </si>
+  <si>
+    <t>Button name ''No, thnx"</t>
+  </si>
+  <si>
+    <t>No, thanks</t>
+  </si>
+  <si>
+    <t>Add Description for Task</t>
+  </si>
+  <si>
+    <t>1. User logged.
+2. Task created</t>
+  </si>
+  <si>
+    <t>Description added</t>
+  </si>
+  <si>
+    <t>Block user</t>
+  </si>
+  <si>
+    <t>Unblock user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 2 users account created. 
+2. Contacts of users added in contacts list each other </t>
+  </si>
+  <si>
+    <t>1. Loggin as 1-st user.
+2. Choose 2-nd user from you contact list.
+2. Push "Block user" button.
+3. Loggin as 2-nd user.
+4. Send message to 1-st user.
+5. Loggin as 1-st user.
+6. Verify if you ressive message from 2-nd user</t>
+  </si>
+  <si>
+    <t>Blocked user can't send messages</t>
+  </si>
+  <si>
+    <t>1. 2 users account created. 
+2. Contacts of users added in contacts list each other
+3. 1-st user blocked</t>
+  </si>
+  <si>
+    <t>User can send messages</t>
+  </si>
+  <si>
+    <t>Delete user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 2 users account created. 
+2. Contacts of users added in contacts list each other
+</t>
+  </si>
+  <si>
+    <t>1. Loggin as 1-st user.
+2. Choose 2-nd user from you contact list.
+3. Click "..." button on right side of screen
+4. Click "Delete Contact" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User deleted from contact list </t>
+  </si>
+  <si>
+    <t>Clear chat</t>
+  </si>
+  <si>
+    <t>Chat cleared</t>
+  </si>
+  <si>
+    <t>Delete chat</t>
+  </si>
+  <si>
+    <t>Chat deleted</t>
+  </si>
+  <si>
+    <t>Delete Task</t>
+  </si>
+  <si>
+    <t>1. Choose task. 
+2. Right click on the task.
+3. Click "Delete task".
+4. Click "Delete".</t>
+  </si>
+  <si>
+    <t>Task deleted</t>
+  </si>
+  <si>
+    <t>Create second new Task inside Hub</t>
+  </si>
+  <si>
+    <t>Leave Hub</t>
+  </si>
+  <si>
+    <t>1. 2 users account created. 
+2. Both contacts added in Hub</t>
+  </si>
+  <si>
+    <t>Only one user still in Hub</t>
+  </si>
+  <si>
+    <t>User account</t>
+  </si>
+  <si>
+    <t>Upload avatar</t>
+  </si>
+  <si>
+    <t>1. User is logged.</t>
+  </si>
+  <si>
+    <t>1. Click on the user icon in the upper right corner.
+2. Click on the user icon next to the username.
+3. Choose appropriate image.
+4.Click "Save" .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. At the bottom of the screen, click on the icon with the image of people.
+2. Enter valid email in the field Email under "Invite People".
+3. Click on "Sent invite".  
+4. Get invite via email. </t>
+  </si>
+  <si>
+    <t>1. Go https://web.gobrief.com/#/login.
+2. Click on "Sign in" sign.
+3. Click on "Sign in"  with Google.
+4. Get verification code via email. 
+5. Choose appropriate Google account in the window that appears.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Click on User icon in right on header.
+2. Click "Logout" button. 
+3. Click "Yes" button in the window that appears.
+</t>
+  </si>
+  <si>
+    <t>1. Go https://web.gobrief.com/#/login.
+2. Click on "Sign in" sign.
+3. Enter valid email. 
+4. Get verification code via email. 
+5. Enter verification code.</t>
+  </si>
+  <si>
+    <t>1. Go https://web.gobrief.com/#/login.
+2. Click on "Create account" button.
+3. Enter valid email. 
+4. Get verification code via email. 
+5. Enter verification code.
+6. Enter your name and name of your project.
+7. Click on "Next" button.
+8. Click on "Or, Skip for now" button.</t>
+  </si>
+  <si>
+    <t>1. Go https://web.gobrief.com/#/login.
+2. Click on "Sign in" sign.
+3. Enter valid email. 
+4. Enter a invalid confirmation code.</t>
+  </si>
+  <si>
+    <t>1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your project in left bar.
+3. Click on "Invite members" icon on right side of screen. 
+4. Select member of team.
+5. Click "save" button on right side of screen.
+6. Click "Members" button.</t>
+  </si>
+  <si>
+    <t>1. Loggin as 1-st user.
+2. Choose 2-nd user from you contact list.
+2. Push "Unblock user" button.
+3. Loggin as 2-nd user.
+4. Send message to 1-st user.
+5. Loggin as 1-st user.
+6. Verify if you ressive message from 2-nd user.</t>
+  </si>
+  <si>
+    <t>1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Setting" icon on right side of screen. 
+4. Select "Delete Team Hub for All" in drop-down list.
+5. In the  emergin window click "Delete for All".</t>
+  </si>
+  <si>
+    <t>1. Right click on the chat.
+2. Click "Leave".
+3. Click "Leave".
+3. Loggin as 2-nd user.
+4. Send message to 1-st user.
+5. Loggin as 1-st user.
+6. Verify if only 1-st user still in Hub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Send message via chat .</t>
+  </si>
+  <si>
+    <t>1. Right click on the chat.
+2. Click "Delete chat".
+3. Click "Delete".</t>
+  </si>
+  <si>
+    <t>1. Click "..." button on right side of screen.
+2. Click "Clean History".</t>
+  </si>
+  <si>
+    <t>1. Click on 'video' icon on top right.
+2. Choose "Audio Call".</t>
+  </si>
+  <si>
+    <t>1. Click on 'video' icon on top right.
+2. Choose "Video Call".</t>
+  </si>
+  <si>
+    <t>1. Hover over the paperclip icon.
+2.  Select "file" from drop-down list.
+3. Send file via chat .</t>
+  </si>
+  <si>
+    <t>1. Hover over the paperclip icon.
+2.  Select "Image" from drop-down list.
+3. Send Image via chat .</t>
+  </si>
+  <si>
+    <t>1. Click "New" button.
+2. Select "Task" from drop-down list.
+3. Enter task name in the field "Add a task, note or idea...".
+4. Click "Create" button on right side of screen.
+5. Click "Tasks" at the bottom of the screen.
+6. Verify if there is new task in tasks list.</t>
+  </si>
+  <si>
+    <t>1. Click "Tasks" at the bottom of the screen.
+2. Select task.
+3. Select the task to be added to the hub.
+4. Click "Add Hub" button.
+5. Click on Hub.
+6. Click "Save" button on right side of screen.
+7. Verify if there is new task in Hub.</t>
+  </si>
+  <si>
+    <t>1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Tasks". 
+4. Click on "New task" .
+5. Enter subtask name in "Add subtask" field.
+6. Click on "+" .
+7. Enter subtask name in "Add subtask" field.
+8.Click on "+" .
+9. Click "Create" button on right side of screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click "Hubs" icon (looks like a quatrefoil).
+2. Click on your Hub in left bar.
+3. Click on "Tasks". 
+4. Click on your task.
+5. Click on "Set Due Date". 
+6. Select date and time.
+7.Click on "Save". </t>
+  </si>
+  <si>
+    <t>1. Choose Task. 
+2. Enter description into "Description" text field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2. Enter text strings.
+2. Press 'magnifying glass' icon. 
+3. Enter "Hello". 
+4. Press Enter. 
+5. switch with up and down arrows to search in chat.</t>
+  </si>
+  <si>
+    <t>1. Click "New" button.
+2. Select "Task" from drop-down list.
+3. Enter task name in the field "Add a task, note or idea...".
+4. Click "Create" button on right side of screen.
+5. Repit 2 times.
+5. Click "Tasks" at the bottom of the screen.
+6. Enter "London" in search field.</t>
+  </si>
+  <si>
+    <t>1. Click "Contscts" at the bottom of the screen.
+2. Enter "George George" in search field.</t>
+  </si>
+  <si>
+    <t>1. Choose "learning" icon. 
+2. Choose "Tutorial Tour". 
+3. Click "Yes, let's do this!".</t>
+  </si>
+  <si>
+    <t>1. Click "New" button.
+2. Select "Hub" from drop-down list.
+3. Enter Hub name in the field "Name".
+4. Click "Create" button on right side of screen.
+5. Repit 2 times.
+5. Click "Hubs" at the bottom of the screen.
+6. Enter "London" in search field.</t>
+  </si>
+  <si>
+    <t>bug# 4</t>
+  </si>
+  <si>
+    <t>bug# 6</t>
+  </si>
+  <si>
+    <t>bug# 10</t>
+  </si>
+  <si>
+    <t>Video call not working</t>
+  </si>
+  <si>
+    <t>Audio call not working</t>
+  </si>
+  <si>
+    <t>bug# 12</t>
+  </si>
+  <si>
+    <t>bug# 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +1021,30 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,16 +1059,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -297,43 +1106,272 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -397,6 +1435,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Рисунок 55" descr="http://F7AF2F49BFA0CEFC83E728EE0612F298.dms.sberbank.ru/F7AF2F49BFA0CEFC83E728EE0612F298-D78D7ABD1F3A89A5743841B537077628-2BB89E44A0C150CF8DE642E63DA9D3FF/1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1588" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -726,10 +1807,1488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C4"/>
+    <sheetView topLeftCell="D47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="37" style="30" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="24"/>
+      <c r="C2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="14">
+        <v>44718</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44722</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35" t="str">
+        <f t="shared" ref="J11:J24" si="0">H11</f>
+        <v>new account created, users initials is displayed on the header</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>user logged in, users initials is displayed on the header</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">user logged out </v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>Message about invalid code</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="43"/>
+    </row>
+    <row r="15" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>5</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>user logged in, users initials is displayed on the header</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>7</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>invitation email is received</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="43"/>
+    </row>
+    <row r="18" spans="1:12" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>8</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35" t="str">
+        <f t="shared" ref="J18" si="1">H18</f>
+        <v>invitation email is received</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="43"/>
+    </row>
+    <row r="19" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>9</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>User is in your contact list</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="43"/>
+    </row>
+    <row r="20" spans="1:12" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>10</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new member added in hub</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="43"/>
+    </row>
+    <row r="21" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>11</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="43"/>
+    </row>
+    <row r="22" spans="1:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>12</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="43"/>
+    </row>
+    <row r="23" spans="1:12" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>13</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>14</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Hub  added</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="25" spans="1:12" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>15</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35" t="str">
+        <f t="shared" ref="J25" si="2">H25</f>
+        <v>Hub  deleted</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>16</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>17</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>18</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>19</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>20</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>21</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>22</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>23</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>24</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>25</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="43"/>
+    </row>
+    <row r="36" spans="1:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>26</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="K36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="47"/>
+    </row>
+    <row r="37" spans="1:12" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>27</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="47"/>
+    </row>
+    <row r="38" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>28</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35" t="str">
+        <f t="shared" ref="J38:J39" si="3">H38</f>
+        <v>task assigned</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L38" s="43"/>
+    </row>
+    <row r="39" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>29</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>2 subtasks created</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="43"/>
+    </row>
+    <row r="40" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35" t="str">
+        <f t="shared" ref="J40" si="4">H40</f>
+        <v>Due Date specified</v>
+      </c>
+      <c r="K40" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="43"/>
+    </row>
+    <row r="41" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>31</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35" t="str">
+        <f t="shared" ref="J41" si="5">H41</f>
+        <v>reminder worked</v>
+      </c>
+      <c r="K41" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>32</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35" t="str">
+        <f t="shared" ref="J42" si="6">H42</f>
+        <v>Description added</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="43"/>
+    </row>
+    <row r="43" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>33</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="K43" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="43"/>
+    </row>
+    <row r="44" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>34</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="43"/>
+    </row>
+    <row r="45" spans="1:12" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>35</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="43"/>
+    </row>
+    <row r="46" spans="1:12" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>36</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="43"/>
+    </row>
+    <row r="47" spans="1:12" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>37</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K47" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="43"/>
+    </row>
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>38</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" s="43" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,11 +3305,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>52</v>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -764,18 +3323,18 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -784,38 +3343,38 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10">
         <v>44722</v>
       </c>
       <c r="D4" s="1"/>
@@ -858,63 +3417,63 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
@@ -925,26 +3484,26 @@
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
@@ -955,152 +3514,326 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="102" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>11</v>
+        <v>60</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1112,7 +3845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
